--- a/Documents/工尺譜/工尺譜.xlsx
+++ b/Documents/工尺譜/工尺譜.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\Documents\工尺譜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9491025B-8A64-4B59-905F-3216C15BE1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B65A8B1-2B51-4F83-A00E-FA15B9529AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-195" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{3F0E3870-AF58-4027-BA55-3710800F77EE}"/>
+    <workbookView xWindow="28680" yWindow="-195" windowWidth="38640" windowHeight="15720" xr2:uid="{3F0E3870-AF58-4027-BA55-3710800F77EE}"/>
   </bookViews>
   <sheets>
-    <sheet name="唐詩《春曉》工尺譜對照" sheetId="1" r:id="rId1"/>
-    <sheet name="工尺譜簡譜音名對照表" sheetId="2" r:id="rId2"/>
+    <sheet name="春曉" sheetId="4" r:id="rId1"/>
+    <sheet name="唐詩《春曉》工尺譜對照" sheetId="1" r:id="rId2"/>
+    <sheet name="工尺譜簡譜音名對照表" sheetId="2" r:id="rId3"/>
+    <sheet name="工尺譜「凡」音的五音與七聲" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="105">
   <si>
     <t>歌詞</t>
   </si>
@@ -275,12 +277,147 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>字</t>
+  </si>
+  <si>
+    <t>原譜 (七聲)</t>
+  </si>
+  <si>
+    <t>純五音建議</t>
+  </si>
+  <si>
+    <t>工 (或 尺)</t>
+  </si>
+  <si>
+    <t>3 (或 2)</t>
+  </si>
+  <si>
+    <t>句次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>板眼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>板</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上——</t>
+  </si>
+  <si>
+    <t>尺——</t>
+  </si>
+  <si>
+    <t>合——</t>
+  </si>
+  <si>
+    <t>cun1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bian5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>put4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kak4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiau2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bun5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>the5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>niau2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ia7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lai5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>u2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sing1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hua1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lok8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>to1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>siau2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>板</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans TC Medium"/>
+        <family val="2"/>
+      </rPr>
+      <t>（延音）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -305,6 +442,13 @@
       <sz val="9"/>
       <name val="Noto Sans TC Medium"/>
       <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Noto Serif TC Black"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
@@ -347,6 +491,33 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF222222"/>
+      <name val="Noto Serif TC Black"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Noto Sans TC Medium"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFFC000"/>
+      <name val="Noto Sans TC Medium"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Noto Sans TC Medium"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -356,7 +527,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -379,13 +550,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -395,9 +636,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -407,11 +645,62 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -746,11 +1035,248 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E951BDE7-0992-416D-980A-7A18EECC8C13}">
+  <dimension ref="B2:M8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="2" max="3" width="4.6640625" customWidth="1"/>
+    <col min="4" max="12" width="4.4140625" customWidth="1"/>
+    <col min="13" max="13" width="5.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="B2" s="17"/>
+      <c r="C2" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="12">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="12">
+        <v>2</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="12">
+        <v>3</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="12">
+        <v>4</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="L2" s="12">
+        <v>5</v>
+      </c>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" spans="2:13" ht="33" x14ac:dyDescent="0.5">
+      <c r="B3" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="24"/>
+      <c r="J3" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="24"/>
+      <c r="L3" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="M3" s="24"/>
+    </row>
+    <row r="4" spans="2:13" ht="4.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="5" spans="2:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="15">
+        <v>2</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="15">
+        <v>3</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="15">
+        <v>4</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477936BF-86D6-4257-841D-5F8EA19246B3}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" x14ac:dyDescent="0.5"/>
@@ -783,7 +1309,9 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="21" t="s">
+        <v>84</v>
+      </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -796,7 +1324,9 @@
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="21" t="s">
+        <v>85</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
@@ -809,7 +1339,9 @@
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
@@ -822,7 +1354,9 @@
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
@@ -835,7 +1369,9 @@
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="21" t="s">
+        <v>88</v>
+      </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
@@ -850,7 +1386,7 @@
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
@@ -865,7 +1401,9 @@
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="21" t="s">
+        <v>89</v>
+      </c>
       <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
@@ -878,7 +1416,9 @@
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="21" t="s">
+        <v>89</v>
+      </c>
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
@@ -891,7 +1431,9 @@
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="21" t="s">
+        <v>90</v>
+      </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
@@ -904,7 +1446,9 @@
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="21" t="s">
+        <v>91</v>
+      </c>
       <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
@@ -917,7 +1461,9 @@
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="21" t="s">
+        <v>92</v>
+      </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
@@ -930,7 +1476,7 @@
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
@@ -945,7 +1491,9 @@
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="21" t="s">
+        <v>93</v>
+      </c>
       <c r="C14" s="4" t="s">
         <v>16</v>
       </c>
@@ -958,7 +1506,9 @@
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="21" t="s">
+        <v>94</v>
+      </c>
       <c r="C15" s="4" t="s">
         <v>17</v>
       </c>
@@ -971,7 +1521,9 @@
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="21" t="s">
+        <v>95</v>
+      </c>
       <c r="C16" s="4" t="s">
         <v>5</v>
       </c>
@@ -984,7 +1536,9 @@
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="21" t="s">
+        <v>96</v>
+      </c>
       <c r="C17" s="4" t="s">
         <v>10</v>
       </c>
@@ -997,7 +1551,9 @@
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="21" t="s">
+        <v>97</v>
+      </c>
       <c r="C18" s="4" t="s">
         <v>12</v>
       </c>
@@ -1010,7 +1566,7 @@
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="4" t="s">
         <v>14</v>
       </c>
@@ -1025,7 +1581,9 @@
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="21" t="s">
+        <v>98</v>
+      </c>
       <c r="C20" s="4" t="s">
         <v>10</v>
       </c>
@@ -1038,7 +1596,9 @@
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="21" t="s">
+        <v>99</v>
+      </c>
       <c r="C21" s="4" t="s">
         <v>5</v>
       </c>
@@ -1051,7 +1611,9 @@
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="21" t="s">
+        <v>100</v>
+      </c>
       <c r="C22" s="4" t="s">
         <v>10</v>
       </c>
@@ -1064,7 +1626,9 @@
       <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="21" t="s">
+        <v>101</v>
+      </c>
       <c r="C23" s="4" t="s">
         <v>12</v>
       </c>
@@ -1077,7 +1641,9 @@
       <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="21" t="s">
+        <v>102</v>
+      </c>
       <c r="C24" s="4" t="s">
         <v>31</v>
       </c>
@@ -1094,12 +1660,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBF54C1-58C3-4607-8E45-59BEE23B1F3D}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.5"/>
@@ -1128,7 +1694,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -1146,7 +1712,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -1164,7 +1730,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -1182,7 +1748,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -1200,7 +1766,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
@@ -1218,7 +1784,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -1236,7 +1802,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="70.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>49</v>
       </c>
@@ -1256,7 +1822,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
@@ -1274,7 +1840,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
@@ -1292,7 +1858,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -1310,7 +1876,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>60</v>
       </c>
@@ -1330,7 +1896,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="70.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
@@ -1350,7 +1916,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
@@ -1367,6 +1933,82 @@
         <v>70</v>
       </c>
       <c r="F14" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9ACB50-C521-466C-844D-C9398DD0D2A7}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="30" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="11"/>
+    <col min="2" max="4" width="14.83203125" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="10">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Documents/工尺譜/工尺譜.xlsx
+++ b/Documents/工尺譜/工尺譜.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\Documents\工尺譜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B65A8B1-2B51-4F83-A00E-FA15B9529AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23588850-283E-4CB7-BA6E-50DE3886C283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-195" windowWidth="38640" windowHeight="15720" xr2:uid="{3F0E3870-AF58-4027-BA55-3710800F77EE}"/>
+    <workbookView xWindow="31185" yWindow="1590" windowWidth="26550" windowHeight="13035" activeTab="1" xr2:uid="{3F0E3870-AF58-4027-BA55-3710800F77EE}"/>
   </bookViews>
   <sheets>
     <sheet name="春曉" sheetId="4" r:id="rId1"/>
-    <sheet name="唐詩《春曉》工尺譜對照" sheetId="1" r:id="rId2"/>
-    <sheet name="工尺譜簡譜音名對照表" sheetId="2" r:id="rId3"/>
-    <sheet name="工尺譜「凡」音的五音與七聲" sheetId="3" r:id="rId4"/>
+    <sheet name="春曉 (2)" sheetId="5" r:id="rId2"/>
+    <sheet name="唐詩《春曉》工尺譜對照" sheetId="1" r:id="rId3"/>
+    <sheet name="工尺譜簡譜音名對照表" sheetId="2" r:id="rId4"/>
+    <sheet name="工尺譜「凡」音的五音與七聲" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="123">
   <si>
     <t>歌詞</t>
   </si>
@@ -412,12 +413,96 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">板
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans TC Medium"/>
+        <family val="2"/>
+      </rPr>
+      <t>（延音）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺工—</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>六</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>六仩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五六</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工六</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五六工尺—</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>四</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺上四</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合工合四—</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工尺譜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡譜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>仩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -518,6 +603,21 @@
       <name val="Noto Sans TC Medium"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Noto Sans TC Medium"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Noto Serif TC Black"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -527,7 +627,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -620,13 +720,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -666,10 +813,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -678,33 +855,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1038,7 +1225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E951BDE7-0992-416D-980A-7A18EECC8C13}">
   <dimension ref="B2:M8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
@@ -1051,36 +1238,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B2" s="17"/>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="21">
         <v>1</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="12">
+      <c r="E2" s="22"/>
+      <c r="F2" s="21">
         <v>2</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="12">
+      <c r="G2" s="22"/>
+      <c r="H2" s="21">
         <v>3</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="12">
+      <c r="I2" s="22"/>
+      <c r="J2" s="21">
         <v>4</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="12">
+      <c r="K2" s="22"/>
+      <c r="L2" s="21">
         <v>5</v>
       </c>
-      <c r="M2" s="13"/>
+      <c r="M2" s="22"/>
     </row>
     <row r="3" spans="2:13" ht="33" x14ac:dyDescent="0.5">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D3" s="23" t="s">
@@ -1106,151 +1293,157 @@
     </row>
     <row r="4" spans="2:13" ht="4.5" customHeight="1" x14ac:dyDescent="0.5"/>
     <row r="5" spans="2:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="15">
+      <c r="B5" s="25">
         <v>1</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="22" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="15">
+      <c r="B6" s="25">
         <v>2</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="22" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="15">
+      <c r="B7" s="25">
         <v>3</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="22" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="15">
+      <c r="B8" s="25">
         <v>4</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="22" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="13" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
@@ -1259,12 +1452,6 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1272,6 +1459,309 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D0E2C5-30F0-4B96-AA43-CCF0D44E97F3}">
+  <dimension ref="B2:K17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="2" max="3" width="4.6640625" customWidth="1"/>
+    <col min="4" max="8" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="5.5" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" customWidth="1"/>
+    <col min="11" max="18" width="5.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B2" s="14"/>
+      <c r="C2" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="12">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12">
+        <v>2</v>
+      </c>
+      <c r="F2" s="12">
+        <v>3</v>
+      </c>
+      <c r="G2" s="12">
+        <v>4</v>
+      </c>
+      <c r="H2" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="5" spans="2:11" ht="57" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="21">
+        <v>1</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="27"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="21">
+        <v>2</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="21">
+        <v>3</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="21">
+        <v>4</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B16" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="K16" s="35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B17" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="35" t="str">
+        <f>"5"&amp;_xlfn.UNICHAR(HEX2DEC("0323"))</f>
+        <v>5̣</v>
+      </c>
+      <c r="E17" s="35" t="str">
+        <f xml:space="preserve"> "6"&amp;_xlfn.UNICHAR(HEX2DEC("0323"))</f>
+        <v>6̣</v>
+      </c>
+      <c r="F17" s="35">
+        <v>1</v>
+      </c>
+      <c r="G17" s="35">
+        <v>2</v>
+      </c>
+      <c r="H17" s="35">
+        <v>3</v>
+      </c>
+      <c r="I17" s="35">
+        <v>5</v>
+      </c>
+      <c r="J17" s="35">
+        <v>6</v>
+      </c>
+      <c r="K17" s="35" t="str">
+        <f xml:space="preserve"> "1"&amp;_xlfn.UNICHAR(HEX2DEC("0307"))</f>
+        <v>1̇</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B11:C12"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B16:C16" r:id="rId1" display="工尺譜" xr:uid="{4F5EC79C-6697-4E60-9A0E-9C821DB51238}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477936BF-86D6-4257-841D-5F8EA19246B3}">
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -1309,7 +1799,7 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1324,7 +1814,7 @@
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>85</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1339,7 +1829,7 @@
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>86</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1354,7 +1844,7 @@
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>87</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1369,7 +1859,7 @@
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="18" t="s">
         <v>88</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1386,7 +1876,7 @@
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
@@ -1401,7 +1891,7 @@
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="18" t="s">
         <v>89</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1416,7 +1906,7 @@
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="18" t="s">
         <v>89</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1431,7 +1921,7 @@
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="18" t="s">
         <v>90</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1446,7 +1936,7 @@
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="18" t="s">
         <v>91</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1461,7 +1951,7 @@
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="18" t="s">
         <v>92</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1476,7 +1966,7 @@
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="21"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
@@ -1491,7 +1981,7 @@
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="18" t="s">
         <v>93</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1506,7 +1996,7 @@
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="18" t="s">
         <v>94</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1521,7 +2011,7 @@
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="18" t="s">
         <v>95</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -1536,7 +2026,7 @@
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="18" t="s">
         <v>96</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -1551,7 +2041,7 @@
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="18" t="s">
         <v>97</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -1566,7 +2056,7 @@
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="21"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="4" t="s">
         <v>14</v>
       </c>
@@ -1581,7 +2071,7 @@
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="18" t="s">
         <v>98</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -1596,7 +2086,7 @@
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="18" t="s">
         <v>99</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1611,7 +2101,7 @@
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="18" t="s">
         <v>100</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -1626,7 +2116,7 @@
       <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="18" t="s">
         <v>101</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -1641,7 +2131,7 @@
       <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="18" t="s">
         <v>102</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -1660,7 +2150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBF54C1-58C3-4607-8E45-59BEE23B1F3D}">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -1940,7 +2430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9ACB50-C521-466C-844D-C9398DD0D2A7}">
   <dimension ref="A1:D4"/>
   <sheetViews>
